--- a/TestCases/EVMotors Test Cases.xlsx
+++ b/TestCases/EVMotors Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EVMotors\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02FB90A-A153-41D5-9843-614C066C0BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434DCBA3-46E9-48E4-B5A7-2164AD8FB133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,13 +238,13 @@
     <t>Record inserted and RentalPerDay set to 100.00</t>
   </si>
   <si>
-    <t>As per the schema it should assign default value i.e. 1 when no value is supplied but it is throwing an error.</t>
-  </si>
-  <si>
     <t>The insertion should be successful and value is rounded of to 2 decimal places.</t>
   </si>
   <si>
     <t>Record inserted successfully with Availability=1</t>
+  </si>
+  <si>
+    <t>This need to be checked as for Electric Vehicle user probably will not enter the EngineSize so it can be null.</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,6 +915,9 @@
       <c r="H9" t="s">
         <v>67</v>
       </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
       <c r="J9" t="s">
         <v>68</v>
       </c>
@@ -942,13 +945,10 @@
         <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
         <v>67</v>
-      </c>
-      <c r="I10" t="s">
-        <v>72</v>
       </c>
       <c r="J10" t="s">
         <v>68</v>
@@ -974,7 +974,7 @@
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
         <v>71</v>

--- a/TestCases/EVMotors Test Cases.xlsx
+++ b/TestCases/EVMotors Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EVMotors\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434DCBA3-46E9-48E4-B5A7-2164AD8FB133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA7AA6A-2802-459C-A31A-FFB0F0A6C343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Chinu Tyagi</t>
   </si>
   <si>
-    <t>The insertion should fail as EngineSize can not be NULL for electric vehicles and it should be Electric as per schema</t>
-  </si>
-  <si>
     <t>Error: Cannot insert the value NULL into column 'EngineSize'</t>
   </si>
   <si>
@@ -244,7 +241,13 @@
     <t>Record inserted successfully with Availability=1</t>
   </si>
   <si>
-    <t>This need to be checked as for Electric Vehicle user probably will not enter the EngineSize so it can be null.</t>
+    <t>The insertion should be successful as Electric vehicles does not have engine size.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>User will not enter any engine size for electric vehicle so we should allow null value.</t>
   </si>
 </sst>
 </file>
@@ -615,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,16 +910,16 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
         <v>69</v>
       </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
         <v>68</v>
@@ -945,7 +948,7 @@
         <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
         <v>67</v>
@@ -974,10 +977,10 @@
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
         <v>67</v>
